--- a/data/minfin/4_questions.xlsx
+++ b/data/minfin/4_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,16 +10,71 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Изменилось содержание картинки</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Удалиь ссылку</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Текст "ФЗ" правильно произносится "фэзэ"
+Текст "157н" написала "эн" (но произносится и сейчас правильно!)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="189">
   <si>
     <t>question</t>
   </si>
@@ -147,14 +202,6 @@
     <t>Для чего осуществляется внутренний финансовый контроль в государственном секторе?</t>
   </si>
   <si>
-    <t>Внутренний финансовый контроль осуществляется для предотвращения бюджетных нарушений в органах власти и учреждениях и направлен на соблюдение стандартов и процедур составления и исполнения бюджета, составления бюджетной отчетности и ведения бюджетного учета, а также на повышение эффективности использования бюджетных средств</t>
-  </si>
-  <si>
-    <t>Внутренний финансовый контроль – это непрерывный процесс, осуществляемый в органах власти и учреждениях для предотвращения бюджетных нарушений.
-ВФК направлен на соблюдение стандартов и процедур составления и исполнения бюджета, составления бюджетной отчетности и ведения бюджетного учета, а также на повышение эффективности использования бюджетных средств.
-Организация и осуществление внутреннего финансового контроля регулируется постановлением Правительства Российской Федерации от 17 марта 2014 г. № 193, а также методическими рекомендациями по осуществлению внутреннего финансового контроля, утвержденными приказом Минфина России от 7 сентября 2016 г. № 356</t>
-  </si>
-  <si>
     <t>Цель, Внутренний, Финансовый, Контроль, Государственный сектор, ВФК, Проводится, Осуществляется</t>
   </si>
   <si>
@@ -162,16 +209,6 @@
   </si>
   <si>
     <t>http://minfin.ru/ru/perfomance/budget/gov_control/legistation</t>
-  </si>
-  <si>
-    <t>Внутренний финансовый аудит – это деятельность внутренних аудиторов в органах государственной власти, основанная на принципе функциональной независимости и осуществляемая в целях:
-- оценки надежности внутреннего финансового контроля,
-- подтверждения достоверности бюджетной отчетности,
-- подготовки предложений о повышении эффективности использования бюджетных средств.
-Организация и осуществление внутреннего финансового аудита регулируется постановлением Правительства Российской Федерации от 17 марта 2014 г. № 193, а также методическими рекомендациями по осуществлению внутреннего финансового аудита, утвержденными приказом Минфина России от 30 декабря 2016 г. № 822</t>
-  </si>
-  <si>
-    <t>Внутренний финансовый аудит осуществляется в органах государственной власти в целях оценки надежности внутреннего финансового контроля, подтверждения достоверности бюджетной отчетности и подготовки предложений о повышении эффективности использования бюджетных средств</t>
   </si>
   <si>
     <t>Цель, Внутренний, Финансовый, Аудит, Государственный сектор, Проводится, Осуществляется</t>
@@ -204,11 +241,6 @@
     <t>Что такое мониторинг качества финансового менеджмента?</t>
   </si>
   <si>
-    <t>Мониторинг качества финансового менеджмента – это оценка финансовой деятельности органов власти в целях анализа как конкретных процедур составления и исполнения бюджета, так и всей совокупности процессов и процедур, влияющих на управление бюджетными средствами этим органом власти.
-Мониторинг качества финансового менеджмента проводят Министерство финансов Российской Федерации, финансовые органы субъектов Российской Федерации. 
-Результаты проведения мониторинга качества финансового менеджмента в отношении федеральных органов государственной власти размещаются на официальном сайте Минфина России в сети «Интернет»</t>
-  </si>
-  <si>
     <t>Результаты мониторинга качества финансового менеджмента в отношении федеральных органов государственной власти в разделе «Качество финансового менеджмента в государственном секторе» на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
@@ -236,32 +268,6 @@
     <t>http://minfin.ru/ru/perfomance/budget/fin_quality/legistation</t>
   </si>
   <si>
-    <t>Какой федеральный орган государственной власти по результатам мониторинга качества финансового менеджмента является лучшим по итогам 2015 года и по итогам 9 месяцев 2016 года?</t>
-  </si>
-  <si>
-    <t>Федеральный, Орган, Государственной Власти, Лучший, Наилучшие оценки, Высокие баллы, По результатам, Мониторинг, Качество, Финансовый, Менеджмент, по итогам, 2015 год, 9 месяцев 2016 года</t>
-  </si>
-  <si>
-    <t>По результатам мониторинга качества финансового менеджмента по итогам 2015 года из 79 федеральных органов государственной власти наилучшие оценки у Министерства внутренних дел Российской Федерации - 83,3 балла из 100.
-По результатам мониторинга качества финансового менеджмента по итогам 9 месяцев 2016 года из 95 федеральных органов государственной власти наилучшие оценки у Государственнойя корпорации по атомной энергии «Росатом» - 80,1 балла из 100</t>
-  </si>
-  <si>
-    <t>За 2015 год оценке качества финансового менеджмента подлежали 79 федеральных органов государственной власти. Средняя итоговая оценка по ним составляет 62,9 балла по 100-балльной шкале.
-По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
-- Министерство внутренних дел Российской Федерации - 83,3 балла;
-- Федеральная миграционная служба - 82,1 балла;
-- Федеральное казначейство - 81,3 балла;
-- Федеральная налоговая служба - 78,6 балла;
-- Федеральная таможенная служба - 78,6 балла;
-- Федеральная служба государственной регистрации, кадастра и картографии - 78,0 баллов.
-За 9 месяцев 2016 года мониторинг качества финансового менеджмента проводился по 95 главным администраторам. В результате расчетов средняя итоговая оценка составила 59,7 балла по 100-балльной шкале.
-По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
-- Государственная корпорация по атомной энергии «Росатом» - 80,1 балла;
-- Верховный Суд Российской Федерации - 77,1 балла;
-- Федеральная служба по финансовому мониторингу - 76,6 балла;
-- Совет Федерации Федерального Собрания Российской Федерации - 76,0 балла.</t>
-  </si>
-  <si>
     <t>http://minfin.ru/ru/perfomance/budget/fin_quality/results/res2015; http://minfin.ru/ru/perfomance/budget/fin_quality/results/res2016</t>
   </si>
   <si>
@@ -269,20 +275,6 @@
   </si>
   <si>
     <t>Улучшилось ли качество финансового менеджмента в федеральных органах власти за последние 5 лет?</t>
-  </si>
-  <si>
-    <t>Качество, Финансовый, Менеджмент, Федеральный, Орган, Государственной Власти, Изменилось, Улучшилось ли, За последние 5 лет</t>
-  </si>
-  <si>
-    <t>В 2016 году качество финансового менеджмента в федеральных органах власти в сравнении за период с 2010 по 2015 годы по средним показателям итоговых оценок улучшилось на 14 баллов. В течение этого периода наблюдался не только рост показателей, но и незначительные ухудшение средних показателей итоговых оценок качества финансового менеджмента в 2013 и в 2015 годах на 0,8 балла и на 4,2 балла соответственно</t>
-  </si>
-  <si>
-    <t>В 2016 году качество финансового менеджмента в федеральных органах власти в сравнении за период с 2010 по 2015 годы по средним показателям итоговых оценок улучшилось на 14 баллов и составила 59,7 балла по 100-балльной шкале, при наилучшей максимальной оценке 80,1 балла и минимальной оценке 37,8 балла. Можно говорить о повышении качества органами государственной власти организации процедур бюджетного планирования, исполнения бюджета, ведения бюджетного учета, составления и представления бюджетной отчетности, а также организации процессов и процедур, влияющих на управление бюджетными средствами.
-В течение периода с 2010 по 2015 наблюдался не только рост показателей, но и незначительные ухудшение средних итоговых оценок качества финансового менеджмента в 2013 и в 2015 годах на 0,8 балла и на 4,2 балла соответственно.
-Результаты оценки качества финансового менеджмента федеральных органов государственной власти в 2010-2016 годах приведены в таблице и на диаграмме</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отчёты о результатах проведения мониторинга качества финансового менеджмента, осуществляемого главными администраторами средств федерального бюджета на официальном сайте Министерства финансов Российской Федерации: </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minfin.ru/ru/perfomance/budget/fin_quality/results/res2017/ </t>
@@ -301,9 +293,6 @@
     <t>Основной целью Руководства по статистике государственных финансов является обеспечение комплексной концептуальной и учетной основы, пригодной для анализа и оценки налоговой и бюджетной политики, результатов деятельности сектора государственного управления и государственного сектора любой страны</t>
   </si>
   <si>
-    <t>Основная цель Руководства по статистике государственных финансов заключается в том, чтобы обеспечить комплексную концептуальную и учетную основу, пригодную для анализа и оценки налоговой и бюджетной политики, в особенности результатов деятельности сектора государственного управления и более широкого государственного сектора любой страны</t>
-  </si>
-  <si>
     <t>Руководства по статистике государственных финансов, Статистика, Госфинансов, Руководства по СГФ, Цель, Международный валютный фонд, МВФ, Разработано</t>
   </si>
   <si>
@@ -335,9 +324,6 @@
   </si>
   <si>
     <t>Определение, Что, обозначает, Институциональная единица</t>
-  </si>
-  <si>
-    <t>Институциональная единица – хозяйствующая единица, которая обладает имуществом, вступает в экономические отношения с другими хозяйствующими единицами, принимает финансовые обязательства, а также экономические решения в соответствии с действующим законодательством Российской Федерации</t>
   </si>
   <si>
     <t>Институциональная единица – это хозяйствующая единица, которая обладает имуществом, вступает в экономические отношения с другими хозяйствующими единицами, принимает финансовые обязательства, а также экономические решения в соответствии с действующим законодательством Российской Федерации</t>
@@ -377,12 +363,6 @@
 5. Государственные (муниципальные) программы</t>
   </si>
   <si>
-    <t>Этапы бюджетного процесса в соответствии с Бюджетным кодексом Российской Федерации на Едином портале бюджетной системы «Электронный бюджет»</t>
-  </si>
-  <si>
-    <t>http://budget.gov.ru/epbs/faces/p/Бюджетная система/Бюджетный процесс</t>
-  </si>
-  <si>
     <t>Что такое бюджет для граждан?</t>
   </si>
   <si>
@@ -416,9 +396,6 @@
     <t>Субъекты, РФ, разрабатывают, Бюджет для граждан</t>
   </si>
   <si>
-    <t>В 2016 году все 85 регионов представили свои бюджеты для граждан. С лучшими из них можно ознакомиться в специальном Докладе на сайте Минфина России</t>
-  </si>
-  <si>
     <t>Доклад о лучшей практике развития «Бюджета для граждан» в субъектах Российской Федерации и муниципальных образованиях за 2015 год на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
@@ -446,9 +423,6 @@
     <t>Положение, Место, России, Открытость, Информация о бюджете, Международный, уровень</t>
   </si>
   <si>
-    <t>По состоянию на 2015 год в авторитетном международном рейтинге по Индексу открытости бюджета (Open Budget Index) среди 102 стран Россия находится на 11 месте и входит в группу стран, «предоставляющих значительный объем информации о бюджетном процессе для общественности»</t>
-  </si>
-  <si>
     <t>Что такое инициативное бюджетирование?</t>
   </si>
   <si>
@@ -458,29 +432,18 @@
     <t>Инициативное бюджетирование – это механизм исполнения функций государства посредством вовлечения граждан в определение и выбор объектов расходования бюджетных средств, а также совместное финансирование их реализации</t>
   </si>
   <si>
-    <t>Инициативное бюджетирование – это механизм исполнения функций государства посредством вовлечения граждан в определение и выбор объектов расходования бюджетных средств, а также совместное финансирование их реализации. 
-Проекты по благоустройству мест массового отдыха, строительства детских площадок, ремонта сельских домов культуры и многие другие реализуются с помощью инициативного бюджетирования уже в 40 регионах России</t>
-  </si>
-  <si>
     <t>Что делается для улучшения понимания гражданами информации о бюджете?</t>
   </si>
   <si>
     <t>Мероприятия, Улучшение, Понимание, Гражданами, Информация о бюджете</t>
   </si>
   <si>
-    <t>Для развития навыков чтения и понимания государственных бюджетов, а также стимулирования участия граждан в процессе составления и исполнения бюджетов Минфином России и региональными финансовыми органами реализуются мероприятия по повышению бюджетной грамотности населения.
-В частности, для учеников 10-х классов разработан курс «Бюджетная грамотность для старшеклассников». На региональном уровне проводятся дни финансовой, налоговой и бюджетной грамотности, в ходе которых представители органов власти читают лекции и отвечают на вопросы граждан</t>
-  </si>
-  <si>
     <t>Какими документами регулируется бухгалтерский (бюджетный) учет?</t>
   </si>
   <si>
     <t>Документы, Регулирование, Бухгалтерский, Бюджетный, Учет</t>
   </si>
   <si>
-    <t>Основные принципы бухгалтерского (бюджетного) учета определены положениями Федерального закона от 6 декабря 2011 года № 402-ФЗ «О бухгалтерском учете» и положениями Инструкции по применению по применению единого плана счетов бухгалтерского учета для государственных органов власти, органов местного самоуправления, органов управления государственными внебюджетными фондами, государственных академий наук, государственных (муниципальных) учреждений, утвержденной приказом Минфина России от 1 декабря 2010 года № 157н</t>
-  </si>
-  <si>
     <t>Основные принципы бухгалтерского (бюджетного) учета определены положениями Федерального закона от 6 декабря 2011 года № 402-ФЗ «О бухгалтерском учете» и положениями Инструкции по применению единого плана счетов бухгалтерского учета для государственных органов власти (государственных органов), органов местного самоуправления, органов управления государственными внебюджетными фондами, государственных академий наук, государственных (муниципальных) учреждений, утвержденной приказом Минфина России от 1 декабря 2010 года № 157н, размещенным на официальном сайте Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Бухгалтерский учет государственного сектора»</t>
   </si>
   <si>
@@ -494,11 +457,6 @@
   </si>
   <si>
     <t>Инструкции, Документы, Автономные, Бюджетные, Учреждения, Составляют, Предоствляют, Бухгалтерскую, Отчетность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Государственные (муниципальные) автономные и бюджетные учреждения составляют и представляют годовую, квартальную бухгалтерскую отчетность по формам, утвержденным приказом Министерства финансов Российской Федерации от 25 марта 2011 года № 33н.
-Дополнительные формы годовой и квартальной бухгалтерской отчетности, представляются федеральными государственными бюджетными и автономными учреждениями в соответствии с приказом Министерства финансов Российской Федерации от 12 мая 2016 года № 60н
-</t>
   </si>
   <si>
     <t>Государственные (муниципальные) автономные учреждения, государственные (муниципальные) бюджетные учреждения составляют и представляют годовую, квартальную бухгалтерскую отчетность по формам, утвержденным приказом Министерства финансов Российской Федерации от 25 марта 2011 года № 33н, размещенным на официальном сайте Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Бухгалтерский учет государственного сектора» 
@@ -517,9 +475,6 @@
     <t>Инструкции, Документы, Составляют, Предоставляют, Отчетность, Об исполнении бюджетов, Бюджетная система РФ</t>
   </si>
   <si>
-    <t>Составление и представление годовой, квартальной и месячной отчетности об исполнении бюджетов бюджетной системы Российской Федерации осуществляется в соответствии с Инструкцией о порядке составления и представления годовой, квартальной и месячной отчетности об исполнении бюджетов бюджетной системы Российской Федерации, утвержденной приказом Министерства финансов Российской Федерации от 28 декабря 2010 г. № 191н</t>
-  </si>
-  <si>
     <t>Составление и представление годовой, квартальной и месячной отчетности об исполнении бюджетов бюджетной системы Российской Федерации осуществляется в соответствии с Инструкцией о порядке составления и представления годовой, квартальной и месячной отчетности об исполнении бюджетов бюджетной системы Российской Федерации, утвержденной приказом Министерства финансов Российской Федерации от 28 декабря 2010 г. № 191н, размещенной на официальном сайте Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Бухгалтерский учет государственного сектора»</t>
   </si>
   <si>
@@ -529,102 +484,1116 @@
     <t>Публичное обсуждение, Федеральные стандарты, Проекты Бухгалтерский учет, Организации государственного сектора, Размещены, В сети «Интернет»</t>
   </si>
   <si>
-    <t>Федеральные стандарты бухгалтерского учета для организаций государственного сектора разрабатываются с 2016 года Минфином России в рамках Программы разработки федеральных стандартов бухгалтерского учета для организаций государственного сектора. Утвержденные федеральные стандарты бухгалтерского учета для организаций государственного сектора и проекты находящиеся на публичном обсуждении, размещены на официальном сайте Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Стандарты финансовой отчетности для государственного сектора»</t>
-  </si>
-  <si>
-    <t>Федеральные стандарты бухгалтерского учета для организаций государственного сектора разрабатываются с 2016 года Минфином России в рамках Программы разработки федеральных стандартов бухгалтерского учета для организаций государственного сектора, утвержденной Приказом Минфина России от 10 апреля 2015 г. № 64н, в целях обеспечения единства системы требований к бухгалтерскому учету, осуществляемому организациями государственного сектора.
-Разработанные проекты федеральных стандартов подлежат процедуре публичного обсуждения, предусмотренной ч. 4 ст. 27 Федерального закона от 6 декабря 2011 г. № 402-ФЗ «О бухгалтерском учете».
+    <t>Нормативные правовые акты и документы в разделе «Стандарты финансовой отчетности для государственного сектора» на официальном сайте Министерства финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>http://minfin.ru/ru/perfomance/budget/bu_gs/sfo/</t>
+  </si>
+  <si>
+    <t>Какие особенности составления отчетности в 2017 году?</t>
+  </si>
+  <si>
+    <t>Особенности, Составление, Бюджетной, Отчетности, 2017</t>
+  </si>
+  <si>
+    <t>Нормативные правовые акты и документы в разделе «Бухгалтерская (финансовая) отчетность государственного сектора» на официальном сайте Министерства финансов Российской Федерации</t>
+  </si>
+  <si>
+    <t>http://minfin.ru/ru/perfomance/budget/bu_gs/budgetotchet/</t>
+  </si>
+  <si>
+    <t>Совместное письмо Минфина России и Казначейства России «О составлении и представлении месячной и квартальной бюджетной отчетности, квартальной сводной бухгалтерской отчетности государственных (муниципальных) бюджетных и автономных учреждений финансовыми органами субъектов Российской Федерации и органами управления государственных внебюджетных фондов в 2017 году»</t>
+  </si>
+  <si>
+    <t>pismoMF-FK_02-07-07_21964_ot_070417.pdf</t>
+  </si>
+  <si>
+    <t>Как используется бюджетная классификация Российской Федерации?</t>
+  </si>
+  <si>
+    <t>Используется, Бюджетная классификация</t>
+  </si>
+  <si>
+    <t>Бюджетная классификация используется для составления и исполнения бюджетов, для ведения бюджетного (бухгалтерского) учета, составления бюджетной (бухгалтерской) и иной финансовой отчетности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что в себя включает бюджетная классификация? </t>
+  </si>
+  <si>
+    <t>Включает, Состоит, Бюджетная классификация</t>
+  </si>
+  <si>
+    <t>Бюджетная классификация включает классификацию доходов бюджетов; классификацию расходов бюджетов; классификацию источников финансирования дефицитов бюджетов; классификацию операций сектора государственного управления</t>
+  </si>
+  <si>
+    <t>Информация о структуре унифицированного кода бюджетной классификации в разделе «Принципы и классификация» на Едином портале бюджетной системы «Электронный бюджет»</t>
+  </si>
+  <si>
+    <t>http://budget.gov.ru/epbs/faces/p/Бюджетная система/Принципы и классификация?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие нормативные правовые акты регулируют порядок применения бюджетной классификации? </t>
+  </si>
+  <si>
+    <t>Нормативные правовые акты, Регулируют, Порядок, Применения, Бюджетной классификации</t>
+  </si>
+  <si>
+    <t>Порядок применения бюджетной классификации регулируется приказом Минфина России от 01 июля 2013 года № 65н «Об утверждении Указаний о порядке применения бюджетной классификации Российской Федерации»</t>
+  </si>
+  <si>
+    <t>С какой целью проводится внутренний финансовый аудит в государственном секторе?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Внутренний финансовый аудит</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> осуществляется в органах государственной власти в целях оценки надежности внутреннего финансового контроля, подтверждения достоверности бюджетной отчетности и подготовки предложений о повышении эффективности использования бюджетных средств</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Внутренний финансовый аудит</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">– это деятельность внутренних аудиторов в органах государственной власти, основанная на принципе функциональной независимости и осуществляемая в целях:
+- оценки надежности внутреннего финансового контроля,
+- подтверждения достоверности бюджетной отчетности,
+- подготовки предложений о повышении эффективности использования бюджетных средств.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Организация и осуществление внутреннего финансового аудита регулируется постановлением Правительства Российской Федерации от 17 марта 2014 г. № 193, а также методическими рекомендациями по осуществлению внутреннего финансового аудита, утвержденными приказом Минфина России от 30 декабря 2016 г. № 822</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Мониторинг качества финансового менеджмента </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>– это оценка финансовой деятельности органов власти в целях анализа как конкретных процедур составления и исполнения бюджета, так и всей совокупности процессов и процедур, влияющих на управление бюджетными средствами этим органом власти.
+Мониторинг качества финансового менеджмента проводят Министерство финансов Российской Федерации, финансовые органы субъектов Российской Федерации. 
+Результаты проведения мониторинга качества финансового менеджмента в отношении федеральных органов государственной власти размещаются на официальном сайте Минфина России в сети «Интернет»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основная </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>цель Руководства по статистике государственных финансо</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>в заключается в том, чтобы обеспечить комплексную концептуальную и учетную основу, пригодную для анализа и оценки налоговой и бюджетной политики, в особенности результатов деятельности сектора государственного управления и более широкого государственного сектора любой страны</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Сектор государственного управления</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> составляют институциональные единицы органов государственного управления и все нерыночные некоммерческие организации, контролируемые и в основном финансируемые единицами органов государственного управления</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Государственный сектор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>включает сектор государственного управления и контролируемые органами государственного управления единицы, основная деятельность которых заключается в проведении коммерческих операций</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>«Скользящим бюджетом»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> называют метод бюджетного планирования, использующий полученные ранее прогнозные оценки в качестве основы для формирования бюджета предстоящего года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Институциональная единица</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> – хозяйствующая единица, которая обладает имуществом, вступает в экономические отношения с другими хозяйствующими единицами, принимает финансовые обязательства, а также экономические решения в соответствии с действующим законодательством Российской Федерации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Бюджетное планирование</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> это процесс формирования объемов бюджетных средств, которые можно мобилизовать в качестве доходов, финансирования расходов, привлечения и погашения заимствований</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Бюджет для граждан </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>– это брошюра, которая публикуется  финансовыми органами к проекту, закону о бюджете или отчету о его исполнении. При этом основные положения бюджета представлены в понятной для всех пользователей форме с иллюстрациями и диаграммами</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году все </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> регионов представили свои бюджеты для граждан. С лучшими из них можно ознакомиться в специальном Докладе на сайте Минфина России</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">По состоянию на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> год в авторитетном международном рейтинге по Индексу открытости бюджета (Open Budget Index) среди </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> стран Россия находится на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> месте и входит в группу стран, «предоставляющих значительный объем информации о бюджетном процессе для общественности»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Инициативное бюджетирование</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> – это механизм исполнения функций государства посредством вовлечения граждан в определение и выбор объектов расходования бюджетных средств, а также совместное финансирование их реализации. 
+Проекты по благоустройству мест массового отдыха, строительства детских площадок, ремонта сельских домов культуры и многие другие реализуются с помощью инициативного бюджетирования уже в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> регионах России</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Для развития навыков чтения и понимания государственных бюджетов, а также стимулирования участия граждан в процессе составления и исполнения бюджетов Минфином России и региональными финансовыми органами реализуются мероприятия по повышению бюджетной грамотности населения.
+В частности, для учеников </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>-х классов разработан курс «Бюджетная грамотность для старшеклассников». На региональном уровне проводятся дни финансовой, налоговой и бюджетной грамотности, в ходе которых представители органов власти читают лекции и отвечают на вопросы граждан</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Федеральные стандарты бухгалтерского учета для организаций государственного сектора</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> разрабатываются с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> года Минфином России в рамках Программы разработки федеральных стандартов бухгалтерского учета для организаций государственного сектора, утвержденной Приказом Минфина России от 10 апреля 2015 г. № 64н, в целях обеспечения единства системы требований к бухгалтерскому учету, осуществляемому организациями государственного сектора.
+Разработанные </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>проекты федеральных стандартов подлежат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>процедуре публичного обсуждения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, предусмотренной ч. 4 ст. 27 Федерального закона от 6 декабря 2011 г. № 402-ФЗ «О бухгалтерском учете».
 Утвержденные федеральные стандарты бухгалтерского учета для организаций государственного сектора и проекты, находящиеся на публичном обсуждении, размещены на официальном сайте Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Стандарты финансовой отчетности для государственного сектора».
-В настоящее время на публичном обсуждении находятся 34  федеральных стандарта бухгалтерского учета для организаций государственного сектора</t>
-  </si>
-  <si>
-    <t>Нормативные правовые акты и документы в разделе «Стандарты финансовой отчетности для государственного сектора» на официальном сайте Министерства финансов Российской Федерации</t>
-  </si>
-  <si>
-    <t>http://minfin.ru/ru/perfomance/budget/bu_gs/sfo/</t>
-  </si>
-  <si>
-    <t>Какие особенности составления отчетности в 2017 году?</t>
-  </si>
-  <si>
-    <t>Особенности, Составление, Бюджетной, Отчетности, 2017</t>
-  </si>
-  <si>
-    <t>Особенности составления отчетности в 2017 году разъяснены совместными письмами Минфина России и Казначейства России, размещенными на официальном Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
-  </si>
-  <si>
-    <t>Особенности составления месячной и квартальной бюджетной отчетности, квартальной сводной бухгалтерской отчетности государственных (муниципальных) бюджетных и автономных учреждений финансовыми органами субъектов Российской Федерации и органами управления государственных внебюджетных фондов в 2017 году разъяснены совместными письмами Минфина России и Казначейства России от 07.04.2017 № 02-07-07/21964 / 07-04-05/02-309 и от 07.04.2017 № 02-07-07/21798 / 07-04-05/02-308, размещенными на официальном Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
-  </si>
-  <si>
-    <t>Нормативные правовые акты и документы в разделе «Бухгалтерская (финансовая) отчетность государственного сектора» на официальном сайте Министерства финансов Российской Федерации</t>
-  </si>
-  <si>
-    <t>http://minfin.ru/ru/perfomance/budget/bu_gs/budgetotchet/</t>
-  </si>
-  <si>
-    <t>Совместное письмо Минфина России и Казначейства России «О составлении и представлении месячной и квартальной бюджетной отчетности, квартальной сводной бухгалтерской отчетности государственных (муниципальных) бюджетных и автономных учреждений финансовыми органами субъектов Российской Федерации и органами управления государственных внебюджетных фондов в 2017 году»</t>
-  </si>
-  <si>
-    <t>pismoMF-FK_02-07-07_21964_ot_070417.pdf</t>
-  </si>
-  <si>
-    <t>Как используется бюджетная классификация Российской Федерации?</t>
-  </si>
-  <si>
-    <t>Используется, Бюджетная классификация</t>
-  </si>
-  <si>
-    <t>Бюджетная классификация используется для составления и исполнения бюджетов, для ведения бюджетного (бухгалтерского) учета, составления бюджетной (бухгалтерской) и иной финансовой отчетности</t>
-  </si>
-  <si>
-    <t>Бюджетная классификация РФ используется для составления и исполнения бюджетов, для ведения бюджетного (бухгалтерского) учета, составления бюджетной (бухгалтерской) и иной финансовой отчетности, и обеспечивает сопоставимость показателей бюджетов бюджетной системы Российской Федерации.
-Бюджетная классификация обеспечивает унификацию бюджетной процедуры, и она необходима для:
+В настоящее время на публичном обсуждении находятся </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  федеральных стандарта бухгалтерского учета для организаций государственного сектора</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Особенности составления месячной и квартальной бюджетной отчетности, квартальной сводной бухгалтерской отчетности государственных (муниципальных) бюджетных и автономных учреждений финансовыми органами субъектов Российской Федерации и органами управления государственных внебюджетных фондов в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> году разъяснены совместными письмами Минфина России и Казначейства России от 07.04.2017 № 02-07-07/21964 / 07-04-05/02-309 и от 07.04.2017 № 02-07-07/21798 / 07-04-05/02-308, размещенными на официальном Министерства финансов Российской Федерации в рубрике «Бюджет», подрубрике «Бухгалтерский учет и бухгалтерская (финансовая) отчетность государственного сектора», разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Бюджетная классификация РФ используется</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> для составления и исполнения бюджетов, для ведения бюджетного (бухгалтерского) учета, составления бюджетной (бухгалтерской) и иной финансовой отчетности, и обеспечивает сопоставимость показателей бюджетов бюджетной системы Российской Федерации.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Бюджетная классификация обеспечивает </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">унификацию бюджетной процедуры, и она </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>необходима</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> для:
 - проведения единого порядка составления всех бюджетов и смет бюджетных учреждений;
 - организации исполнения бюджетов и получения информации о движении бюджетных ресурсов в процессе исполнения бюджета;
 - проведения анализа плановых и отчетных данных по бюджету и на основе этого выявления резервов роста доходов и экономии расходов бюджета;
 - организации контроля за исполнением бюджета, соблюдения финансовой дисциплины в бюджетной сфере и во всех бюджетных учреждениях</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что в себя включает бюджетная классификация? </t>
-  </si>
-  <si>
-    <t>Включает, Состоит, Бюджетная классификация</t>
-  </si>
-  <si>
-    <t>Бюджетная классификация включает классификацию доходов бюджетов; классификацию расходов бюджетов; классификацию источников финансирования дефицитов бюджетов; классификацию операций сектора государственного управления</t>
-  </si>
-  <si>
-    <t>Бюджетная классификация включает:
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Бюджетная классификация включает</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:
 • классификацию доходов бюджетов;
 • классификацию расходов бюджетов;
 • классификацию источников финансирования дефицитов бюджетов;
 • классификацию операций сектора государственного управления.
 Для классификации доходов, расходов и источников финансирования дефицитов бюджетов Российской Федерации используется унифицированный 20-значный код</t>
-  </si>
-  <si>
-    <t>Информация о структуре унифицированного кода бюджетной классификации в разделе «Принципы и классификация» на Едином портале бюджетной системы «Электронный бюджет»</t>
-  </si>
-  <si>
-    <t>http://budget.gov.ru/epbs/faces/p/Бюджетная система/Принципы и классификация?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Какие нормативные правовые акты регулируют порядок применения бюджетной классификации? </t>
-  </si>
-  <si>
-    <t>Нормативные правовые акты, Регулируют, Порядок, Применения, Бюджетной классификации</t>
-  </si>
-  <si>
-    <t>Порядок применения бюджетной классификации регулируется приказом Минфина России от 01 июля 2013 года № 65н «Об утверждении Указаний о порядке применения бюджетной классификации Российской Федерации»</t>
-  </si>
-  <si>
-    <t>С какой целью проводится  внутренний финансовый аудит в государственном секторе?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Отчёты о результатах проведения мониторинга качества финансового менеджмента, осуществляемого главными администраторами средств федерального бюджета на официальном сайте Министерства финансов Российской Федерации </t>
+  </si>
+  <si>
+    <t>Внутренний финансовый контроль осуществляется для предотвращения бюджетных нарушений в органах власти и направлен на соблюдение стандартов и процедур составления и исполнения бюджета, составления бюджетной отчетности и ведения бюджетного учета, а также на повышение эффективности использования бюджетных средств</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Внутренний финансовый контроль</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">– это непрерывный процесс, осуществляемый в органах власти для предотвращения бюджетных нарушений.
+ВФК направлен на соблюдение стандартов и процедур составления и исполнения бюджета, составления бюджетной отчетности и ведения бюджетного учета, а также на повышение эффективности использования бюджетных средств.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Организация и осуществление внутреннего финансового контроля регулируется постановлением Правительства Российской Федерации от 17 марта 2014 г. № 193, а также методическими рекомендациями по осуществлению внутреннего финансового контроля, утвержденными приказом Минфина России от 7 сентября 2016 г. № 356</t>
+    </r>
+  </si>
+  <si>
+    <t>Какой федеральный орган государственной власти по результатам мониторинга качества финансового менеджмента является лучшим по итогам 2015 года и по 2016 года?</t>
+  </si>
+  <si>
+    <t>Федеральный, Орган, Государственной Власти, Лучший, Наилучшие оценки, Высокие баллы, По результатам, Мониторинг, Качество, Финансовый, Менеджмент, по итогам, 2015 год, 2016 год</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">За </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> год оценке качества финансового менеджмента подлежали </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> федеральных органов государственной власти. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Средняя итоговая оценка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> по ним составляет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>62,9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-балльной шкале.
+По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
+- Министерство внутренних дел Российской Федерации - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>83,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная миграционная служба - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>82,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральное казначейство - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>81,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная налоговая служба - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>78,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная таможенная служба - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>78,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная служба государственной регистрации, кадастра и картографии - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>78,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> баллов.
+За 2016 год мониторинг качества финансового менеджмента проводился по 94 главным администраторам. В результате расчетов средняя итоговая оценка составила 62,1 балла по 100-балльной шкале.
+По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
+-Государственная корпорация по атомной энергии «Росатом» - 91,0 балла;
+-Совет Федерации Федерального Собрания Российской Федерации - 84,8 балла;
+-Федеральная служба по финансовому мониторингу - 80,8 балла;
+-Верховный Суд Российской Федерации - 80,4 балла;
+-Федеральная таможенная служба - 80,3 балла</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">В 2016 году качество финансового менеджмента в федеральных органах власти в сравнении за период с 2010 по 2016 годы по средним показателям итоговых оценок улучшилось на 16,4 балла и составила 59,5 балла по 100-балльной шкале, при наилучшей максимальной оценке 87,5 балла и минимальной оценке 30,9 балла. Можно говорить о повышении органами государственной власти качества организации процедур бюджетного планирования, исполнения бюджета, ведения бюджетного учета, составления и представления бюджетной отчетности, а также организации процессов и процедур, влияющих на управление бюджетными средствами.
+Результаты оценки качества финансового менеджмента федеральных органов государственной власти в 2010-2016 годах приведены в таблице и на диаграмме </t>
+  </si>
+  <si>
+    <t>Качество, Финансовый, Менеджмент, Федеральный, Орган, Государственной Власти, Изменилось, Улучшилось ли, За последние 7 лет, За последние 5 лет, За последние годы</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году все восемдесят пять регионов представили свои бюджеты для граждан. С лучшими из них можно ознакомиться в специальном Докладе на сайте Минфина России</t>
+  </si>
+  <si>
+    <t>По состоянию на две тысячи пятнадцатый год в авторитетном международном рейтинге по Индексу открытости бюджета (Open Budget Index) среди сто двух стран Россия находится на одиннадцатом месте и входит в группу стран, «предоставляющих значительный объем информации о бюджетном процессе для общественности»</t>
+  </si>
+  <si>
+    <t>Минфином России и региональными финансовыми органами реализуются мероприятия по повышению бюджетной грамотности населения.
+В частности, для учеников десятых классов разработан курс «Бюджетная грамотность для старшеклассников». На региональном уровне проводятся дни финансовой, налоговой и бюджетной грамотности, в ходе которых представители органов власти читают лекции и отвечают на вопросы граждан</t>
+  </si>
+  <si>
+    <t>Федеральные стандарты бухгалтерского учета для организаций государственного сектора разрабатываются с две тысячи шестнадцатого года Минфином России в рамках Программы разработки федеральных стандартов бухгалтерского учета для организаций государственного сектора. Утвержденные федеральные стандарты бухгалтерского учета для организаций государственного сектора и проекты находящиеся на публичном обсуждении, размещены на официальном сайте Министерства финансов Российской Федерации в разделе «Стандарты финансовой отчетности для государственного сектора»</t>
+  </si>
+  <si>
+    <t>Особенности составления отчетности в две тысячи семнадцатом году разъяснены совместными письмами Минфина России и Казначейства России, размещенными на официальном Министерства финансов Российской Федерации в разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
+  </si>
+  <si>
+    <t>Порядок применения бюджетной классификации регулируется приказом Минфина России от первого июля две тысячи тринадцатого года номер шестьдесят пять эн «Об утверждении Указаний о порядке применения бюджетной классификации Российской Федерации»</t>
+  </si>
+  <si>
+    <t>Составление и представление годовой, квартальной и месячной отчетности об исполнении бюджетов бюджетной системы Российской Федерации осуществляется в соответствии с Инструкцией о порядке составления и представления годовой, квартальной и месячной отчетности об исполнении бюджетов бюджетной системы Российской Федерации, утвержденной приказом Министерства финансов Российской Федерации от двадцать восьмого декабря две тысячи десятого года номер сто девяносто один эн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Государственные (муниципальные) автономные и бюджетные учреждения составляют и представляют годовую, квартальную бухгалтерскую отчетность по формам, утвержденным приказом Министерства финансов Российской Федерации от двадцать пятого марта две тысячиодиннадцатого года номер тридцать три эн.
+Дополнительные формы годовой и квартальной бухгалтерской отчетности, представляются федеральными государственными бюджетными и автономными учреждениями в соответствии с приказом Министерства финансов Российской Федерации от двеннадцатого мая две тысячи шстнадцатого года номер шестьдесят эн
+</t>
+  </si>
+  <si>
+    <t>По результатам мониторинга качества финансового менеджмента по итогам две тысячи пятнадцатого года из семидесяти девяти федеральных органов государственной власти наилучшие оценки у Министерства внутренних дел Российской Федерации - восемьдесят три целых три десятых балла из ста
+По результатам мониторинга качества финансового менеджмента по итогам две тысячи шестнадцатого года из девяносточетырех  федеральных органов государственной власти наилучшие оценки у Государственнойя корпорации по атомной энергии «Росатом» - девяносто один баллл из ста</t>
+  </si>
+  <si>
+    <t>В две тысячи шестнадцатом году качество финансового менеджмента в федеральных органах власти в сравнении за период с две тысячи десятого по две тысячи шестнадцатый годы по средним показателям итоговых оценок улучшилось на шестнадцать целых черыре балла</t>
+  </si>
+  <si>
+    <t>Основные принципы бухгалтерского (бюджетного) учета определены положениями Федерального закона от шестого декабря две тысячи одиннадцатого года номер четыреста два ФЗ «О бухгалтерском учете» и положениями Инструкции по применению единого плана счетов бухгалтерского учета для государственных органов власти, органов местного самоуправления, органов управления государственными внебюджетными фондами, государственных академий наук, государственных (муниципальных) учреждений, утвержденной приказом Минфина России от первого декабря две тысячи десятого года номер сто пятьдесят семь эн</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +1623,47 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -664,7 +1674,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFDC7E"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,7 +1691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -710,11 +1720,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +1740,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFAFDC7E"/>
       <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
@@ -1028,29 +2043,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50" style="3" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="78.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="81" style="3" customWidth="1"/>
     <col min="5" max="5" width="50" style="3" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="44.140625" style="3" customWidth="1"/>
@@ -1063,7 +2078,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1101,617 +2116,613 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="189">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" ht="284.25" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>181</v>
+      <c r="B3" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="199.5" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="220.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" ht="173.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="110.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="362.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>68</v>
+      <c r="B7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="330.75" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="189">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="141.75">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="63">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="153.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="78.75">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="47.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="101.25" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="380.25" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="63">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="140.25" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="94.5">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="159.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="210.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="278.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="157.5">
       <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>137</v>
+        <v>115</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>165</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="252" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="189">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="378" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="252">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>146</v>
+        <v>122</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="220.5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="157.5">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="393.75" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="267.75">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>156</v>
+        <v>130</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="283.5">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>134</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="299.25" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="236.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="192" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="94.5">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>180</v>
+        <v>148</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1720,16 +2731,16 @@
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G8" r:id="rId3"/>
     <hyperlink ref="G9" r:id="rId4"/>
-    <hyperlink ref="G15" r:id="rId5"/>
-    <hyperlink ref="G17" r:id="rId6"/>
-    <hyperlink ref="G18" r:id="rId7"/>
-    <hyperlink ref="G19" r:id="rId8"/>
-    <hyperlink ref="G25" r:id="rId9"/>
-    <hyperlink ref="G26" r:id="rId10"/>
-    <hyperlink ref="G27" r:id="rId11"/>
-    <hyperlink ref="G29" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId5"/>
+    <hyperlink ref="G18" r:id="rId6"/>
+    <hyperlink ref="G19" r:id="rId7"/>
+    <hyperlink ref="G25" r:id="rId8"/>
+    <hyperlink ref="G26" r:id="rId9"/>
+    <hyperlink ref="G27" r:id="rId10"/>
+    <hyperlink ref="G29" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/data/minfin/4_questions.xlsx
+++ b/data/minfin/4_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
+    <comment ref="F15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Текст "ФЗ" правильно произносится "фэзэ"
 Текст "157н" написала "эн" (но произносится и сейчас правильно!)</t>
@@ -202,16 +203,10 @@
     <t>Для чего осуществляется внутренний финансовый контроль в государственном секторе?</t>
   </si>
   <si>
-    <t>Цель, Внутренний, Финансовый, Контроль, Государственный сектор, ВФК, Проводится, Осуществляется</t>
-  </si>
-  <si>
     <t>Нормативные правовые акты и методические рекомендации в разделе «Внутренний финансовый контроль и аудит в государственном секторе» на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
     <t>http://minfin.ru/ru/perfomance/budget/gov_control/legistation</t>
-  </si>
-  <si>
-    <t>Цель, Внутренний, Финансовый, Аудит, Государственный сектор, Проводится, Осуществляется</t>
   </si>
   <si>
     <t>Как узнать о результатах внутреннего финансового аудита конкретного органа власти?</t>
@@ -330,9 +325,6 @@
   </si>
   <si>
     <t>Что такое бюджетное планирование?</t>
-  </si>
-  <si>
-    <t>Определение, Что, обозначает, Бюджетное планирование</t>
   </si>
   <si>
     <t>Бюджетное планирование это процесс формирования объемов бюджетных средств, которые можно мобилизовать в качестве доходов, финансирования расходов, привлечения и погашения заимствований</t>
@@ -366,18 +358,12 @@
     <t>Что такое бюджет для граждан?</t>
   </si>
   <si>
-    <t>Определение, Бюджет для граждан</t>
-  </si>
-  <si>
     <t>Бюджет для граждан – это брошюра, которая публикуется  финансовыми органами к проекту, закону о бюджете или отчету о его исполнении. При этом основные положения бюджета представлены в понятной для всех пользователей форме с иллюстрациями и диаграммами</t>
   </si>
   <si>
     <t>Где можно ознакомиться с федеральным бюджетом для граждан?</t>
   </si>
   <si>
-    <t>Где, Ознакомиться, в сети «Интернет», Федеральный, Бюджет для граждан</t>
-  </si>
-  <si>
     <t>Ознакомиться с бюджетами для граждан к федеральному бюджету разных лет можно в разделе «Бюджет для граждан» на сайте Минфина России</t>
   </si>
   <si>
@@ -393,9 +379,6 @@
     <t>Какие субъекты Российской Федерации разрабатывают бюджеты для граждан?</t>
   </si>
   <si>
-    <t>Субъекты, РФ, разрабатывают, Бюджет для граждан</t>
-  </si>
-  <si>
     <t>Доклад о лучшей практике развития «Бюджета для граждан» в субъектах Российской Федерации и муниципальных образованиях за 2015 год на официальном сайте Министерства финансов Российской Федерации</t>
   </si>
   <si>
@@ -424,9 +407,6 @@
   </si>
   <si>
     <t>Что такое инициативное бюджетирование?</t>
-  </si>
-  <si>
-    <t>Инициативное бюджетирование, Определение</t>
   </si>
   <si>
     <t>Инициативное бюджетирование – это механизм исполнения функций государства посредством вовлечения граждан в определение и выбор объектов расходования бюджетных средств, а также совместное финансирование их реализации</t>
@@ -1588,12 +1568,33 @@
   <si>
     <t>Основные принципы бухгалтерского (бюджетного) учета определены положениями Федерального закона от шестого декабря две тысячи одиннадцатого года номер четыреста два ФЗ «О бухгалтерском учете» и положениями Инструкции по применению единого плана счетов бухгалтерского учета для государственных органов власти, органов местного самоуправления, органов управления государственными внебюджетными фондами, государственных академий наук, государственных (муниципальных) учреждений, утвержденной приказом Минфина России от первого декабря две тысячи десятого года номер сто пятьдесят семь эн</t>
   </si>
+  <si>
+    <t>Что, Является, Определение, Бюджет для граждан</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Цель, Внутренний, Финансовый, Контроль, Государственный сектор, ВФК, Проводится, Осуществляется</t>
+  </si>
+  <si>
+    <t>Зачем, Для чего, Нужны, Цель, Внутренний, Финансовый, Аудит, Государственный сектор, Проводится, Осуществляется</t>
+  </si>
+  <si>
+    <t>Где, Ознакомиться, Узнать, Посмотреть, Сеть, Интернет, Федеральный, Бюджет для граждан</t>
+  </si>
+  <si>
+    <t>Какие, Субъекты, Российская федерация, РФ, Россия, разрабатывают, Бюджет для граждан</t>
+  </si>
+  <si>
+    <t>Инициативное бюджетирование, Определение, Это</t>
+  </si>
+  <si>
+    <t>Определение, Что, обозначает, Бюджетное планирование, Это</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1658,11 +1659,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1691,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1731,6 +1732,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,24 +2050,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
@@ -2078,7 +2085,7 @@
     <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="189">
+    <row r="2" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2124,605 +2131,605 @@
         <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="284.25" customHeight="1">
+    </row>
+    <row r="3" spans="1:12" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>146</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="199.5" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="173.25">
+    </row>
+    <row r="5" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="110.25">
+    </row>
+    <row r="6" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="362.25">
+    </row>
+    <row r="7" spans="1:12" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="189">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="I8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="141.75">
+    </row>
+    <row r="9" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="63">
+    </row>
+    <row r="10" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="153.75" customHeight="1">
+    </row>
+    <row r="11" spans="1:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="78.75">
+        <v>150</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="47.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="101.25" customHeight="1">
+        <v>153</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="380.25" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="63">
+    <row r="16" spans="1:12" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="90" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="140.25" customHeight="1">
+    </row>
+    <row r="18" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>102</v>
+        <v>155</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="94.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="159.75" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="210.75" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="157.5">
+        <v>157</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="189">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="189" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="252">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="157.5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="267.75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="283.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="236.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="192" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="94.5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/4_questions.xlsx
+++ b/data/minfin/4_questions.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="189">
   <si>
     <t>question</t>
   </si>
@@ -265,9 +265,6 @@
     <t>В чем заключается основная цель Руководства по статистике государственных финансов, разработанного Международным валютным фондом?</t>
   </si>
   <si>
-    <t>Основной целью Руководства по статистике государственных финансов является обеспечение комплексной концептуальной и учетной основы, пригодной для анализа и оценки налоговой и бюджетной политики, результатов деятельности сектора государственного управления и государственного сектора любой страны</t>
-  </si>
-  <si>
     <t>Руководства по статистике государственных финансов, Статистика, Госфинансов, Руководства по СГФ, Цель, Международный валютный фонд, МВФ, Разработано</t>
   </si>
   <si>
@@ -323,16 +320,6 @@
   </si>
   <si>
     <t>Составление, Проекта бюджета, очередной финансовый год, Нормативные, Правовые, Документы, Регламентируется</t>
-  </si>
-  <si>
-    <t>Составление проекта бюджета на очередной финансовый год основывается на положениях бюджетного послания Президента Российской Федерации (и аналогичных посланиях высших должностных лиц субъектов РФ и местного самоуправления), на прогнозе социально-экономического развития соответствующей территории на очередной финансовый год,  на основных направлениях бюджетной, налоговой и таможенно-тарифной политики Российской Федерации (основных направлениях бюджетной и налоговой политики субъектов Российской Федерации (муниципальных образований)), на бюджетном прогнозе на долгосрочный период, а также на государственных (муниципальных) программах</t>
-  </si>
-  <si>
-    <t>Составление проекта бюджета на очередной финансовый год основывается на следующих документах:
-1. Положения бюджетного послания Президента Российской Федерации (и аналогичные послания высших должностных лиц субъектов РФ и местного самоуправления).
-2. Прогноз социально-экономического развития соответствующей территории на очередной финансовый год. 3. Основные направления бюджетной, налоговой и таможенно-тарифной политики Российской Федерации (основные направления бюджетной и налоговой политики субъектов Российской Федерации (муниципальных образований)).
-4. Бюджетный прогноз на долгосрочный период.
-5. Государственные (муниципальные) программы</t>
   </si>
   <si>
     <t>Что такое бюджет для граждан?</t>
@@ -684,10 +671,6 @@
 Мониторинг качества финансового менеджмента проводят Министерство финансов Российской Федерации, финансовые органы субъектов Российской Федерации. 
 Результаты проведения мониторинга качества финансового менеджмента в отношении федеральных органов государственной власти размещаются на официальном сайте Минфина России в сети «Интернет»</t>
     </r>
-  </si>
-  <si>
-    <t>По результатам мониторинга качества финансового менеджмента по итогам две тысячи пятнадцатого года из семидесяти девяти федеральных органов государственной власти наилучшие оценки у Министерства внутренних дел Российской Федерации - восемьдесят три целых три десятых балла из ста
-По результатам мониторинга качества финансового менеджмента по итогам две тысячи шестнадцатого года из девяносто четырех  федеральных органов государственной власти наилучшие оценки у Государственной корпорации по атомной энергии «Росатом» - девяносто один балл из ста</t>
   </si>
   <si>
     <r>
@@ -918,9 +901,6 @@
     </r>
   </si>
   <si>
-    <t>В две тысячи шестнадцатом году качество финансового менеджмента в федеральных органах власти в сравнении за период с две тысячи десятого по две тысячи шестнадцатый годы по средним показателям итоговых оценок улучшилось на шестнадцать целых черыре десятых балла</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Основная </t>
     </r>
@@ -1365,9 +1345,6 @@
     <t>Ознакомиться с бюджетами для граждан к федеральному бюджету разных лет можно в разделе «Бюджет для граждан» на официальном сайте Минфина России</t>
   </si>
   <si>
-    <t>С две тысячи шестнадцатого года все восемьдесят пять регионов представили свои бюджеты для граждан</t>
-  </si>
-  <si>
     <t>С 2016 года все 85 субъектов Российской Федерации готовят свои бюджеты для граждан. С лучшими из них можно ознакомиться в специальном Докладе, размещенном в разделе «Бюджет для граждан» на официальном сайте Минфина России</t>
   </si>
   <si>
@@ -1399,9 +1376,6 @@
   </si>
   <si>
     <t>Россия находится на одиннадцатом месте среди ста двух стран мира по Индексу открытости бюджета</t>
-  </si>
-  <si>
-    <t>Инициативное бюджетирование – механизм вовлечения граждан в определение приоритетов расходования бюджетных средств</t>
   </si>
   <si>
     <r>
@@ -1447,13 +1421,168 @@
   </si>
   <si>
     <t>Для этой цели реализуются мероприятия по повышению бюджетной грамотности населения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">С две тысячи шестнадцатого года все восемьдесят пять регионов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>готовят</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> свои бюджеты для граждан</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В две тысячи шестнадцатом году качество финансового менеджмента в федеральных органах власти в сравнении за период с две тысячи десятого по две тысячи шестнадцатый годы по средним показателям итоговых оценок улучшилось на шестнадцать целых черыре </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>десятых</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>По результатам мониторинга качества финансового менеджмента по итогам две тысячи пятнадцатого года из семидесяти девяти федеральных органов государственной власти наилучшие оценки у Министерства внутренних дел Российской Федерации - восемьдесят три целых три десятых балла из ста</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+По результатам мониторинга качества финансового менеджмента по итогам две тысячи шестнадцатого года из девяносто четырех  федеральных органов государственной власти наилучшие оценки у Государственной корпорации по атомной энергии «Росатом» - девяносто один балл из ста</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основной целью Руководства по статистике государственных финансов является обеспечение комплексной концептуальной и учетной основы, пригодной для анализа и оценки налоговой и бюджетной политики, результатов деятельности сектора государственного управления и </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">более широкого </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>государственного сектора любой страны</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ознакомиться с бюджетами для граждан к федеральному бюджету разных лет можно в разделе «Бюджет для граждан» на </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>официальном</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> сайте Минфина России</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Инициативное бюджетирование – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>это</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> механизм вовлечения граждан в определение приоритетов расходования бюджетных средств</t>
+    </r>
+  </si>
+  <si>
+    <t>Составление проекта бюджета на очередной финансовый год основывается на положениях послания Президента Российской Федерации Федеральному Собранию Российской Федерации, определяющих бюджетную политику (требования к бюджетной политике) в Российской Федерации (и аналогичных посланиях высших должностных лиц субъектов РФ и местного самоуправления), на прогнозе социально-экономического развития соответствующей территории на очередной финансовый год,  на основных направлениях бюджетной, налоговой и таможенно-тарифной политики Российской Федерации (основных направлениях бюджетной и налоговой политики субъектов Российской Федерации (муниципальных образований)), на бюджетном прогнозе на долгосрочный период, а также на государственных (муниципальных) программах</t>
+  </si>
+  <si>
+    <t>Составление проекта бюджета на очередной финансовый год основывается на следующих документах:
+1. Положения послания Президента Российской Федерации Федеральному Собранию Российской Федерации, определяющих бюджетную политику (требования к бюджетной политике) в Российской Федерации (и аналогичные послания высших должностных лиц субъектов РФ и местного самоуправления).
+2. Прогноз социально-экономического развития соответствующей территории на очередной финансовый год. 3. Основные направления бюджетной, налоговой и таможенно-тарифной политики Российской Федерации (основные направления бюджетной и налоговой политики субъектов Российской Федерации (муниципальных образований)).
+4. Бюджетный прогноз на долгосрочный период.
+5. Государственные (муниципальные) программы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1504,8 +1633,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1515,6 +1651,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1559,6 +1707,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1881,18 +2035,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="63.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="81" style="4" customWidth="1"/>
     <col min="5" max="5" width="50" style="4" customWidth="1"/>
     <col min="6" max="6" width="36.5703125" style="4" customWidth="1"/>
@@ -1952,13 +2106,13 @@
         <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>42</v>
@@ -1972,16 +2126,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>42</v>
@@ -2007,7 +2161,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>48</v>
@@ -2024,7 +2178,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>53</v>
@@ -2064,16 +2218,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>60</v>
@@ -2089,17 +2243,17 @@
       <c r="B8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>164</v>
+      <c r="C8" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>62</v>
@@ -2118,37 +2272,37 @@
       <c r="B9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="63">
+    </row>
+    <row r="10" spans="1:12" ht="89.25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="153.75" customHeight="1">
@@ -2156,16 +2310,16 @@
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="78.75">
@@ -2173,50 +2327,50 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="47.25">
+    </row>
+    <row r="13" spans="1:12" ht="84" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D13" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="101.25" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="161.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="380.25" customHeight="1">
@@ -2224,16 +2378,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="78.75">
@@ -2241,16 +2395,16 @@
         <v>26</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" customHeight="1">
@@ -2258,22 +2412,22 @@
         <v>27</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="140.25" customHeight="1">
@@ -2281,45 +2435,45 @@
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>180</v>
+        <v>89</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="94.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="110.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="159.75" customHeight="1">
@@ -2327,16 +2481,16 @@
         <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="210.75" customHeight="1">
@@ -2344,125 +2498,125 @@
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="157.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="179.25" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="189">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="215.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="267.75">
+    </row>
+    <row r="24" spans="1:11" ht="252">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="173.25">
+    </row>
+    <row r="25" spans="1:11" ht="182.25" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="283.5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="267.75">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="283.5">
@@ -2470,28 +2624,28 @@
         <v>37</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="236.25">
@@ -2499,16 +2653,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="192" customHeight="1">
@@ -2516,22 +2670,22 @@
         <v>39</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="94.5">
@@ -2539,16 +2693,16 @@
         <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/4_questions.xlsx
+++ b/data/minfin/4_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,9 +492,6 @@
     <t>Федеральные стандарты бухгалтерского учета для организаций государственного сектора разрабатываются с две тысячи шестнадцатого года Минфином России в рамках Программы разработки федеральных стандартов бухгалтерского учета для организаций государственного сектора. Утвержденные федеральные стандарты бухгалтерского учета для организаций государственного сектора и проекты находящиеся на публичном обсуждении, размещены на официальном сайте Министерства финансов Российской Федерации в разделе «Стандарты финансовой отчетности для государственного сектора»</t>
   </si>
   <si>
-    <t>Особенности составления отчетности в две тысячи семнадцатом году разъяснены совместными письмами Минфина России и Казначейства России, размещенными на официальном Министерства финансов Российской Федерации в разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
-  </si>
-  <si>
     <t>Порядок применения бюджетной классификации регулируется приказом Минфина России от первого июля две тысячи тринадцатого года номер шестьдесят пять эн «Об утверждении Указаний о порядке применения бюджетной классификации Российской Федерации»</t>
   </si>
   <si>
@@ -1448,30 +1445,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">В две тысячи шестнадцатом году качество финансового менеджмента в федеральных органах власти в сравнении за период с две тысячи десятого по две тысячи шестнадцатый годы по средним показателям итоговых оценок улучшилось на шестнадцать целых черыре </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>десятых</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>По результатам мониторинга качества финансового менеджмента по итогам две тысячи пятнадцатого года из семидесяти девяти федеральных органов государственной власти наилучшие оценки у Министерства внутренних дел Российской Федерации - восемьдесят три целых три десятых балла из ста</t>
     </r>
     <r>
@@ -1493,30 +1466,6 @@
       </rPr>
       <t xml:space="preserve">
 По результатам мониторинга качества финансового менеджмента по итогам две тысячи шестнадцатого года из девяносто четырех  федеральных органов государственной власти наилучшие оценки у Государственной корпорации по атомной энергии «Росатом» - девяносто один балл из ста</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Основной целью Руководства по статистике государственных финансов является обеспечение комплексной концептуальной и учетной основы, пригодной для анализа и оценки налоговой и бюджетной политики, результатов деятельности сектора государственного управления и </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">более широкого </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>государственного сектора любой страны</t>
     </r>
   </si>
   <si>
@@ -1577,12 +1526,42 @@
 4. Бюджетный прогноз на долгосрочный период.
 5. Государственные (муниципальные) программы</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">В две тысячи шестнадцатом году качество финансового менеджмента в федеральных органах власти в сравнении за период с две тысячи десятого по две тысячи шестнадцатый годы по средним показателям итоговых оценок улучшилось на шестнадцать целых четыре </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>десятых</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла</t>
+    </r>
+  </si>
+  <si>
+    <t>Особенности составления отчетности в две тысячи семнадцатом году разъяснены совместными письмами Минфина России и Казначейства России, размещенными на официальном сайте Министерства финансов Российской Федерации в разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
+  </si>
+  <si>
+    <t>Основной целью Руководства по статистике государственных финансов является обесп\+ечение комплексной концептуальной и учетной основы, пригодной для анализа и оценки налоговой и бюджетной политики, результатов деятельности сектора государственного управления и более широкого государственного сектора любой страны</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2025,24 +2004,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
@@ -2060,7 +2039,7 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2098,7 +2077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="189">
+    <row r="2" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2109,10 +2088,10 @@
         <v>135</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>42</v>
@@ -2121,7 +2100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="284.25" customHeight="1">
+    <row r="3" spans="1:12" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2129,13 +2108,13 @@
         <v>133</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>42</v>
@@ -2144,7 +2123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="199.5" customHeight="1">
+    <row r="4" spans="1:12" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2161,13 +2140,13 @@
         <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="173.25">
+    <row r="5" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2178,7 +2157,7 @@
         <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>53</v>
@@ -2190,7 +2169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="126">
+    <row r="6" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="362.25">
+    <row r="7" spans="1:12" ht="362.25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2221,10 +2200,10 @@
         <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>137</v>
@@ -2236,7 +2215,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="189">
+    <row r="8" spans="1:12" ht="189" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +2223,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>138</v>
@@ -2265,7 +2244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="141.75">
+    <row r="9" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2273,10 +2252,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>66</v>
@@ -2288,7 +2267,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="89.25" customHeight="1">
+    <row r="10" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2299,13 +2278,13 @@
         <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="153.75" customHeight="1">
+    <row r="11" spans="1:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2316,13 +2295,13 @@
         <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="78.75">
+    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2333,13 +2312,13 @@
         <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="84" customHeight="1">
+    <row r="13" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -2350,13 +2329,13 @@
         <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="161.25" customHeight="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2367,13 +2346,13 @@
         <v>82</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="380.25" customHeight="1">
+    <row r="15" spans="1:12" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2381,16 +2360,16 @@
         <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="78.75">
+    <row r="16" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2398,16 +2377,16 @@
         <v>85</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="90" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2415,13 +2394,13 @@
         <v>86</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>87</v>
@@ -2430,7 +2409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="140.25" customHeight="1">
+    <row r="18" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2438,13 +2417,13 @@
         <v>89</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>90</v>
@@ -2453,15 +2432,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="110.25">
+    <row r="19" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>177</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>92</v>
@@ -2476,7 +2455,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="159.75" customHeight="1">
+    <row r="20" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -2484,16 +2463,16 @@
         <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="210.75" customHeight="1">
+    <row r="21" spans="1:11" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -2501,16 +2480,16 @@
         <v>97</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="179.25" customHeight="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -2518,16 +2497,16 @@
         <v>98</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="215.25" customHeight="1">
+    <row r="23" spans="1:11" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -2535,7 +2514,7 @@
         <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>102</v>
@@ -2550,7 +2529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="252">
+    <row r="24" spans="1:11" ht="252" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -2558,13 +2537,13 @@
         <v>105</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>107</v>
@@ -2573,7 +2552,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="182.25" customHeight="1">
+    <row r="25" spans="1:11" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -2581,7 +2560,7 @@
         <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>111</v>
@@ -2596,7 +2575,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="267.75">
+    <row r="26" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -2607,7 +2586,7 @@
         <v>140</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>113</v>
@@ -2619,7 +2598,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="283.5">
+    <row r="27" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -2627,10 +2606,10 @@
         <v>116</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>117</v>
@@ -2648,7 +2627,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="236.25">
+    <row r="28" spans="1:11" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -2659,13 +2638,13 @@
         <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="192" customHeight="1">
+    <row r="29" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -2676,7 +2655,7 @@
         <v>127</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>126</v>
@@ -2688,7 +2667,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="94.5">
+    <row r="30" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -2696,7 +2675,7 @@
         <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>132</v>

--- a/data/minfin/4_questions.xlsx
+++ b/data/minfin/4_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
@@ -9,56 +9,16 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="I8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Изменилось содержание картинки</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Текст "ФЗ" правильно произносится "фэзэ"
-Текст "157н" написала "эн" (но произносится и сейчас правильно!)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="189">
   <si>
@@ -667,234 +627,6 @@
       <t>– это оценка финансовой деятельности органов власти в целях анализа как конкретных процедур составления и исполнения бюджета, так и всей совокупности процессов и процедур, влияющих на управление бюджетными средствами этим органом власти.
 Мониторинг качества финансового менеджмента проводят Министерство финансов Российской Федерации, финансовые органы субъектов Российской Федерации. 
 Результаты проведения мониторинга качества финансового менеджмента в отношении федеральных органов государственной власти размещаются на официальном сайте Минфина России в сети «Интернет»</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">За </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> год оценке качества финансового менеджмента подлежали </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>79</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> федеральных органов государственной власти. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Средняя итоговая оценка</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> по ним составляет </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>62,9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла по </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">-балльной шкале.
-По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
-- Министерство внутренних дел Российской Федерации - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>83,3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла;
-- Федеральная миграционная служба - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>82,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла;
-- Федеральное казначейство - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>81,3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла;
-- Федеральная налоговая служба - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>78,6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла;
-- Федеральная таможенная служба - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>78,6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла;
-- Федеральная служба государственной регистрации, кадастра и картографии - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>78,0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> баллов.
-За 2016 год мониторинг качества финансового менеджмента проводился по 94 главным администраторам. В результате расчетов средняя итоговая оценка составила 62,1 балла по 100-балльной шкале.
-По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
--Государственная корпорация по атомной энергии «Росатом» - 91,0 балла;
--Совет Федерации Федерального Собрания Российской Федерации - 84,8 балла;
--Федеральная служба по финансовому мониторингу - 80,8 балла;
--Верховный Суд Российской Федерации - 80,4 балла;
--Федеральная таможенная служба - 80,3 балла</t>
     </r>
   </si>
   <si>
@@ -1520,62 +1252,282 @@
     <t>Составление проекта бюджета на очередной финансовый год основывается на положениях послания Президента Российской Федерации Федеральному Собранию Российской Федерации, определяющих бюджетную политику (требования к бюджетной политике) в Российской Федерации (и аналогичных посланиях высших должностных лиц субъектов РФ и местного самоуправления), на прогнозе социально-экономического развития соответствующей территории на очередной финансовый год,  на основных направлениях бюджетной, налоговой и таможенно-тарифной политики Российской Федерации (основных направлениях бюджетной и налоговой политики субъектов Российской Федерации (муниципальных образований)), на бюджетном прогнозе на долгосрочный период, а также на государственных (муниципальных) программах</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">В две тысячи шестнадцатом году качество финансового менеджмента в федеральных органах власти в сравнении за период с две тысячи десятого по две тысячи шестнадцатый годы по средним показателям итоговых оценок улучшилось на шестнадцать целых четыре </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>десятых</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла</t>
+    </r>
+  </si>
+  <si>
+    <t>Особенности составления отчетности в две тысячи семнадцатом году разъяснены совместными письмами Минфина России и Казначейства России, размещенными на официальном сайте Министерства финансов Российской Федерации в разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
+  </si>
+  <si>
+    <t>Основной целью Руководства по статистике государственных финансов является обесп\+ечение комплексной концептуальной и учетной основы, пригодной для анализа и оценки налоговой и бюджетной политики, результатов деятельности сектора государственного управления и более широкого государственного сектора любой страны</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">За </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> год оценке качества финансового менеджмента подлежали </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> федеральных органов государственной власти. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Средняя итоговая оценка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> по ним составляет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>62,9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла по </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">-балльной шкале.
+По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
+- Министерство внутренних дел Российской Федерации - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>83,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная миграционная служба - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>82,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральное казначейство - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>81,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная налоговая служба - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>78,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная таможенная служба - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>78,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> балла;
+- Федеральная служба государственной регистрации, кадастра и картографии - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>78,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> баллов.
+За 2016 год мониторинг качества финансового менеджмента проводился по 94 главным администраторам. В результате расчетов средняя итоговая оценка составила 62,1 балла по 100-балльной шкале.
+По результатам мониторинга качества финансового менеджмента наилучшие оценки у следующих органов власти:
+- Государственная корпорация по атомной энергии «Росатом» - 91,0 балла;
+- Совет Федерации Федерального Собрания Российской Федерации - 84,8 балла;
+- Федеральная служба по финансовому мониторингу - 80,8 балла;
+- Верховный Суд Российской Федерации - 80,4 балла;
+- Федеральная таможенная служба - 80,3 балла</t>
+    </r>
+  </si>
+  <si>
     <t>Составление проекта бюджета на очередной финансовый год основывается на следующих документах:
-1. Положения послания Президента Российской Федерации Федеральному Собранию Российской Федерации, определяющих бюджетную политику (требования к бюджетной политике) в Российской Федерации (и аналогичные послания высших должностных лиц субъектов РФ и местного самоуправления).
-2. Прогноз социально-экономического развития соответствующей территории на очередной финансовый год. 3. Основные направления бюджетной, налоговой и таможенно-тарифной политики Российской Федерации (основные направления бюджетной и налоговой политики субъектов Российской Федерации (муниципальных образований)).
-4. Бюджетный прогноз на долгосрочный период.
+1. Положения послания Президента Российской Федерации Федеральному Собранию Российской Федерации, определяющих бюджетную политику (требования к бюджетной политике) в Российской Федерации (и аналогичные послания высших должностных лиц субъектов РФ и местного самоуправления);
+2. Прогноз социально-экономического развития соответствующей территории на очередной финансовый год; 3. Основные направления бюджетной, налоговой и таможенно-тарифной политики Российской Федерации (основные направления бюджетной и налоговой политики субъектов Российской Федерации (муниципальных образований));
+4. Бюджетный прогноз на долгосрочный период;
 5. Государственные (муниципальные) программы</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">В две тысячи шестнадцатом году качество финансового менеджмента в федеральных органах власти в сравнении за период с две тысячи десятого по две тысячи шестнадцатый годы по средним показателям итоговых оценок улучшилось на шестнадцать целых четыре </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>десятых</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> балла</t>
-    </r>
-  </si>
-  <si>
-    <t>Особенности составления отчетности в две тысячи семнадцатом году разъяснены совместными письмами Минфина России и Казначейства России, размещенными на официальном сайте Министерства финансов Российской Федерации в разделе «Бухгалтерская (финансовая) отчетность государственного сектора»</t>
-  </si>
-  <si>
-    <t>Основной целью Руководства по статистике государственных финансов является обесп\+ечение комплексной концептуальной и учетной основы, пригодной для анализа и оценки налоговой и бюджетной политики, результатов деятельности сектора государственного управления и более широкого государственного сектора любой страны</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1660,37 +1612,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2004,24 +1956,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
@@ -2039,7 +1991,7 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2077,7 +2029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="189">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2100,7 +2052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="284.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -2123,7 +2075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="199.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -2146,7 +2098,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="173.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2169,7 +2121,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="126">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2192,7 +2144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="362.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2200,10 +2152,10 @@
         <v>136</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>137</v>
@@ -2215,7 +2167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="189" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="189">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2223,7 +2175,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>138</v>
@@ -2244,7 +2196,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="141.75">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2252,10 +2204,10 @@
         <v>65</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>66</v>
@@ -2267,7 +2219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="89.25" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -2278,13 +2230,13 @@
         <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="153.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -2295,13 +2247,13 @@
         <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="94.5">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -2312,13 +2264,13 @@
         <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="84" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -2329,13 +2281,13 @@
         <v>79</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="161.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2346,13 +2298,13 @@
         <v>82</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="380.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="380.25" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2360,16 +2312,16 @@
         <v>83</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="78.75">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -2377,16 +2329,16 @@
         <v>85</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="90" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2394,10 +2346,10 @@
         <v>86</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>150</v>
@@ -2409,7 +2361,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="140.25" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -2417,10 +2369,10 @@
         <v>89</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>151</v>
@@ -2432,15 +2384,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="110.25">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>92</v>
@@ -2455,7 +2407,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="159.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -2463,16 +2415,16 @@
         <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="210.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -2480,16 +2432,16 @@
         <v>97</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="179.25" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -2497,16 +2449,16 @@
         <v>98</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="215.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -2529,7 +2481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="252" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="267.75">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -2552,7 +2504,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="182.25" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -2575,7 +2527,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="283.5">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -2586,7 +2538,7 @@
         <v>140</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>113</v>
@@ -2598,7 +2550,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="283.5">
       <c r="A27" s="3" t="s">
         <v>37</v>
       </c>
@@ -2606,10 +2558,10 @@
         <v>116</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>117</v>
@@ -2627,7 +2579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="236.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -2638,13 +2590,13 @@
         <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="192" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
@@ -2655,7 +2607,7 @@
         <v>127</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>126</v>
@@ -2667,7 +2619,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="94.5">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -2700,6 +2652,5 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>